--- a/biology/Médecine/Ballon_de_Bakri/Ballon_de_Bakri.xlsx
+++ b/biology/Médecine/Ballon_de_Bakri/Ballon_de_Bakri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ballon de Bakri est un instrument médical de tamponnement intra-utérin inventé par le Dr Younes Bakri. Ce ballon se présente comme un cathéter en silicone de 54 cm de long (ou 24 sur l'échelle French/Charrière) avec une capacité de remplissage de 500 ml. Ce dispositif est utilisé pour contrôler et réduire temporairement l'hémorragie de la délivrance.
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ballon de Bakri est un ballon obstétrical en silicone spécifiquement conçu pour traiter l'hémorragie de la délivrance. Ce système est utilisé pour « le contrôle ou la réduction temporaire de l'hémorragie de la délivrance lorsqu'une gestion conservative du saignement utérin est nécessaire ».
 </t>
@@ -542,9 +556,11 @@
           <t>Évaluation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude en Finlande impliquant 50 patientes a enregistré un taux de succès de 86 % pour le traitement de l'hémorragie de la délivrance avec le ballon de Bakri[1]. Une étude allemande avec 20 patientes a rapporté un taux de succès de 90 % quand le ballon est utilisé de façon combinée avec des sutures B-Lynch[2]. Il permettrait potentiellement d'éviter des hystérectomies[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude en Finlande impliquant 50 patientes a enregistré un taux de succès de 86 % pour le traitement de l'hémorragie de la délivrance avec le ballon de Bakri. Une étude allemande avec 20 patientes a rapporté un taux de succès de 90 % quand le ballon est utilisé de façon combinée avec des sutures B-Lynch. Il permettrait potentiellement d'éviter des hystérectomies.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Recommandations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération internationale de gynécologie et d'obstétrique (FIGO) et la Confédération internationale des sages-femmes (ICM) ont toutes deux approuvé l'usage du ballon comme un des principaux moyens de traitement de l'hémorragie de la délivrance[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération internationale de gynécologie et d'obstétrique (FIGO) et la Confédération internationale des sages-femmes (ICM) ont toutes deux approuvé l'usage du ballon comme un des principaux moyens de traitement de l'hémorragie de la délivrance.
 </t>
         </is>
       </c>
